--- a/command.xlsx
+++ b/command.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtcmca-my.sharepoint.com/personal/180042945_stu_vtc_edu_hk/Documents/FYP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wing199901/OneDrive - Vocational Training Council/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8AF43CD-6BB2-154B-BF57-D34D415DBF9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{E8AF43CD-6BB2-154B-BF57-D34D415DBF9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B3E6CE15-9323-0743-9893-87351FDC5402}"/>
   <bookViews>
     <workbookView xWindow="5060" yWindow="1800" windowWidth="28260" windowHeight="17560" xr2:uid="{094AFC0E-FDE3-9342-B9CC-AE403EDF031B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <r>
       <t>pi@navio</t>
@@ -66,6 +66,9 @@
       </rPr>
       <t xml:space="preserve"> sudo create_ap -n --ieee80211n --ht_capab '[HT40+]' wlan0 Navio ChangeMe --mkconfig /etc/create_ap.conf</t>
     </r>
+  </si>
+  <si>
+    <t> raspivid -t 999999 -w 1080 -h 720 -fps 25 -hf -b 2000000 -o - | \gst-launch-1.0 -v fdsrc ! h264parse ! rtph264pay config-interval=1 pt=96 \! gdppay ! tcpserversink host=192.168.12.1 port=5000</t>
   </si>
 </sst>
 </file>
@@ -131,11 +134,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,9 +458,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FCFBCD-1509-E145-B96E-D3628DEF2DD3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
@@ -463,6 +471,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/command.xlsx
+++ b/command.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wing199901/OneDrive - Vocational Training Council/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{E8AF43CD-6BB2-154B-BF57-D34D415DBF9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B3E6CE15-9323-0743-9893-87351FDC5402}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{E8AF43CD-6BB2-154B-BF57-D34D415DBF9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{17F7DEE7-4DEF-A443-9DCC-63D825D7068A}"/>
   <bookViews>
     <workbookView xWindow="5060" yWindow="1800" windowWidth="28260" windowHeight="17560" xr2:uid="{094AFC0E-FDE3-9342-B9CC-AE403EDF031B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <r>
       <t>pi@navio</t>
@@ -68,14 +68,18 @@
     </r>
   </si>
   <si>
-    <t> raspivid -t 999999 -w 1080 -h 720 -fps 25 -hf -b 2000000 -o - | \gst-launch-1.0 -v fdsrc ! h264parse ! rtph264pay config-interval=1 pt=96 \! gdppay ! tcpserversink host=192.168.12.1 port=5000</t>
+    <t>raspivid -t 999999 -w 1080 -h 720 -fps 25 -hf -b 2000000 -o - | \gst-launch-1.0 -v fdsrc ! h264parse ! rtph264pay config-interval=1 pt=96 \! gdppay ! tcpserversink host=192.168.12.1 port=5000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gst-launch-1.0 udpsrc port=5600 caps="application/x-rtp, clock-rate=(int)90000, packetization-mode=(string)1, payload=(int)96, a-framerate=(string)30" ! rtph264depay ! decodebin ! videoconvert ! autovideosink</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,6 +115,12 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -134,7 +144,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -142,6 +152,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FCFBCD-1509-E145-B96E-D3628DEF2DD3}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -472,8 +485,13 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/command.xlsx
+++ b/command.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wing199901/OneDrive - Vocational Training Council/FYP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtcmca-my.sharepoint.com/personal/180042945_stu_vtc_edu_hk/Documents/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{E8AF43CD-6BB2-154B-BF57-D34D415DBF9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{17F7DEE7-4DEF-A443-9DCC-63D825D7068A}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{E8AF43CD-6BB2-154B-BF57-D34D415DBF9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A0398CC4-EE62-A848-B864-16ACAC1713BC}"/>
   <bookViews>
     <workbookView xWindow="5060" yWindow="1800" windowWidth="28260" windowHeight="17560" xr2:uid="{094AFC0E-FDE3-9342-B9CC-AE403EDF031B}"/>
   </bookViews>
@@ -73,6 +73,7 @@
   </si>
   <si>
     <t>gst-launch-1.0 udpsrc port=5600 caps="application/x-rtp, clock-rate=(int)90000, packetization-mode=(string)1, payload=(int)96, a-framerate=(string)30" ! rtph264depay ! decodebin ! videoconvert ! autovideosink</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -474,7 +475,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
